--- a/Reto 2/Mapeo señales.xlsx
+++ b/Reto 2/Mapeo señales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46f60c8bc399d251/Documentos/GitHub/SCI-20221/Reto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63AD938-44D3-4DF0-BF43-2622B52574DD}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F833B032-86F0-41DF-8C16-740AC439E6BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{243BBFAB-176B-41E9-A012-DE4E77E2788A}"/>
   </bookViews>
@@ -494,7 +494,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}" name="Tabla1" displayName="Tabla1" ref="B2:H31" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}"/>
+  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Actuador"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1A5C40AC-92DC-43C9-9F4B-B9205687EB71}" name="FactoryIO"/>
     <tableColumn id="2" xr3:uid="{CA277AD4-0ECF-4AA3-A4D2-47FA41B44C4B}" name="Studio5000"/>
@@ -807,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE5328-E64E-4CF6-BB67-AB7692494E53}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -858,7 +864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -903,7 +909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -945,7 +951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -973,7 +979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>76</v>
       </c>

--- a/Reto 2/Mapeo señales.xlsx
+++ b/Reto 2/Mapeo señales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46f60c8bc399d251/Documentos/GitHub/SCI-20221/Reto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F833B032-86F0-41DF-8C16-740AC439E6BE}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C25871-907E-48C4-86E3-F44F921194E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{243BBFAB-176B-41E9-A012-DE4E77E2788A}"/>
+    <workbookView minimized="1" xWindow="2784" yWindow="3960" windowWidth="17280" windowHeight="9072" xr2:uid="{243BBFAB-176B-41E9-A012-DE4E77E2788A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,13 +494,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}" name="Tabla1" displayName="Tabla1" ref="B2:H31" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Actuador"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1A5C40AC-92DC-43C9-9F4B-B9205687EB71}" name="FactoryIO"/>
     <tableColumn id="2" xr3:uid="{CA277AD4-0ECF-4AA3-A4D2-47FA41B44C4B}" name="Studio5000"/>
@@ -813,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE5328-E64E-4CF6-BB67-AB7692494E53}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -864,7 +858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -909,7 +903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -951,7 +945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -979,7 +973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1122,7 +1116,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -1184,7 +1178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1198,7 +1192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -1226,7 +1220,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>76</v>
       </c>

--- a/Reto 2/Mapeo señales.xlsx
+++ b/Reto 2/Mapeo señales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46f60c8bc399d251/Documentos/GitHub/SCI-20221/Reto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C25871-907E-48C4-86E3-F44F921194E3}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{8EEEBFFC-086C-4211-B436-AE7E5741E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13392B41-01A1-467F-A893-8CE733A34513}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2784" yWindow="3960" windowWidth="17280" windowHeight="9072" xr2:uid="{243BBFAB-176B-41E9-A012-DE4E77E2788A}"/>
+    <workbookView xWindow="2688" yWindow="1788" windowWidth="17280" windowHeight="9072" xr2:uid="{243BBFAB-176B-41E9-A012-DE4E77E2788A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}" name="Tabla1" displayName="Tabla1" ref="B2:H31" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}"/>
+  <autoFilter ref="B2:H31" xr:uid="{E0BB6DF7-A3DD-4BB9-B28A-E24DB7C5C1C0}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Actuador"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1A5C40AC-92DC-43C9-9F4B-B9205687EB71}" name="FactoryIO"/>
     <tableColumn id="2" xr3:uid="{CA277AD4-0ECF-4AA3-A4D2-47FA41B44C4B}" name="Studio5000"/>
@@ -808,7 +814,7 @@
   <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B25" sqref="B25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -858,7 +864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -903,7 +909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -945,7 +951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -973,7 +979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>76</v>
       </c>
